--- a/pro-ctcae/software/IVRS-repo/proctc_question_core_symptoms.xlsx
+++ b/pro-ctcae/software/IVRS-repo/proctc_question_core_symptoms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="370">
   <si>
     <t>How OFTEN did you FEEL ANXIETY</t>
   </si>
@@ -888,18 +888,6 @@
     <t>instructions</t>
   </si>
   <si>
-    <t>presentOptions</t>
-  </si>
-  <si>
-    <t>frequencyOptions</t>
-  </si>
-  <si>
-    <t>severityOptions</t>
-  </si>
-  <si>
-    <t>interferenceOptions</t>
-  </si>
-  <si>
     <t>amountOptions</t>
   </si>
   <si>
@@ -1020,9 +1008,6 @@
     <t>askCallerPin</t>
   </si>
   <si>
-    <t>askForFormSubmission</t>
-  </si>
-  <si>
     <t>coreSymptomInstructionsMessage</t>
   </si>
   <si>
@@ -1045,6 +1030,102 @@
   </si>
   <si>
     <t>tryLater</t>
+  </si>
+  <si>
+    <t>presentOptions1</t>
+  </si>
+  <si>
+    <t>frequencyOptions2</t>
+  </si>
+  <si>
+    <t>severityOptions3</t>
+  </si>
+  <si>
+    <t>frequencyOptions1</t>
+  </si>
+  <si>
+    <t>severityOptions1</t>
+  </si>
+  <si>
+    <t>interferenceOptions1</t>
+  </si>
+  <si>
+    <t>presentOptions2</t>
+  </si>
+  <si>
+    <t>presentOptions3</t>
+  </si>
+  <si>
+    <t>frequencyOptions3</t>
+  </si>
+  <si>
+    <t>severityOptions2</t>
+  </si>
+  <si>
+    <t>optionNotAvailable</t>
+  </si>
+  <si>
+    <t>optionNotSexualyActive</t>
+  </si>
+  <si>
+    <t>optionPreferNotToAnswer</t>
+  </si>
+  <si>
+    <t>No, yes, Not sexually active, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>plus Not sexually active, Prefer not to answer</t>
+  </si>
+  <si>
+    <t>You seleted 5 for "Not sexually active"</t>
+  </si>
+  <si>
+    <t>You selected 6 for "Prefer not  to answer"</t>
+  </si>
+  <si>
+    <t>presentOptionNotAvailable</t>
+  </si>
+  <si>
+    <t>You seleted 5 for "Not available"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, yes, Not available </t>
+  </si>
+  <si>
+    <t>plus Not available</t>
+  </si>
+  <si>
+    <t>You selected 2 for "Not available"</t>
+  </si>
+  <si>
+    <t>You selected 2 for "Not sexually active"</t>
+  </si>
+  <si>
+    <t>presentOptionNotSexuallyActive</t>
+  </si>
+  <si>
+    <t>You selected 3 for "Prefer not to answer"</t>
+  </si>
+  <si>
+    <t>presentOptionPreferNotToAnswer</t>
+  </si>
+  <si>
+    <t>interferenceOptions2</t>
+  </si>
+  <si>
+    <t>plus "not available"</t>
+  </si>
+  <si>
+    <t>successfullySubmittedForm</t>
+  </si>
+  <si>
+    <t>7DaysRecallPeriod.gsm</t>
+  </si>
+  <si>
+    <t>you selected 5 for prefer not to answer</t>
+  </si>
+  <si>
+    <t>frequencyOptionPreferNotToAnswer</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1146,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1087,6 +1168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1148,6 +1235,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1444,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:IV1"/>
     </sheetView>
   </sheetViews>
@@ -2129,7 +2217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E128"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -4080,10 +4168,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4106,7 +4194,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4298,7 +4386,7 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -4327,7 +4415,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -4335,7 +4423,7 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -4343,7 +4431,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -4351,7 +4439,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -4359,7 +4447,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -4367,7 +4455,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -4375,7 +4463,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4383,7 +4471,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4391,20 +4479,23 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:3">
+      <c r="B39" s="10" t="s">
+        <v>367</v>
+      </c>
       <c r="C39">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -4412,7 +4503,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4420,7 +4511,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4428,7 +4519,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4436,7 +4527,7 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4444,7 +4535,7 @@
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4452,7 +4543,7 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -4465,7 +4556,7 @@
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4473,7 +4564,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4481,7 +4572,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4489,7 +4580,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4497,7 +4588,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -4505,7 +4596,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4513,7 +4604,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C55">
         <v>188</v>
@@ -4521,7 +4612,7 @@
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C56">
         <v>189</v>
@@ -4529,7 +4620,7 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C57">
         <v>190</v>
@@ -4537,7 +4628,7 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C58">
         <v>191</v>
@@ -4545,7 +4636,7 @@
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C59">
         <v>192</v>
@@ -4553,7 +4644,7 @@
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C60">
         <v>193</v>
@@ -4561,7 +4652,7 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C61">
         <v>194</v>
@@ -4569,7 +4660,7 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C62">
         <v>195</v>
@@ -4577,7 +4668,7 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C63">
         <v>196</v>
@@ -4585,7 +4676,7 @@
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C64">
         <v>197</v>
@@ -4593,7 +4684,7 @@
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C65">
         <v>198</v>
@@ -4601,7 +4692,7 @@
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C66">
         <v>199</v>
@@ -4609,7 +4700,7 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C67">
         <v>200</v>
@@ -4617,7 +4708,7 @@
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C68">
         <v>201</v>
@@ -4625,7 +4716,7 @@
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C69">
         <v>202</v>
@@ -4633,7 +4724,7 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C70">
         <v>203</v>
@@ -4641,7 +4732,7 @@
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C71">
         <v>204</v>
@@ -4649,7 +4740,7 @@
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C72">
         <v>205</v>
@@ -4657,7 +4748,7 @@
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C73">
         <v>206</v>
@@ -4665,7 +4756,7 @@
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C74">
         <v>207</v>
@@ -4673,7 +4764,7 @@
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C75">
         <v>208</v>
@@ -4681,7 +4772,7 @@
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C76">
         <v>209</v>
@@ -4689,7 +4780,7 @@
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="C77">
         <v>210</v>
@@ -4697,7 +4788,7 @@
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C78">
         <v>211</v>
@@ -4705,7 +4796,7 @@
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C79">
         <v>212</v>
@@ -4713,46 +4804,201 @@
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C80">
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="1:3">
       <c r="B81" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C81">
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="1:3">
       <c r="B82" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C82">
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="1:3">
       <c r="B83" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C83">
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="1:3">
       <c r="B84" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C84">
         <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>357</v>
+      </c>
+      <c r="B86" t="s">
+        <v>344</v>
+      </c>
+      <c r="C86">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>351</v>
+      </c>
+      <c r="B87" t="s">
+        <v>345</v>
+      </c>
+      <c r="C87">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>358</v>
+      </c>
+      <c r="B88" t="s">
+        <v>339</v>
+      </c>
+      <c r="C88">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B90" t="s">
+        <v>347</v>
+      </c>
+      <c r="C90">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91" t="s">
+        <v>340</v>
+      </c>
+      <c r="C91">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>356</v>
+      </c>
+      <c r="B93" t="s">
+        <v>348</v>
+      </c>
+      <c r="C93">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>353</v>
+      </c>
+      <c r="B94" t="s">
+        <v>349</v>
+      </c>
+      <c r="C94">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>354</v>
+      </c>
+      <c r="B95" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>359</v>
+      </c>
+      <c r="B96" t="s">
+        <v>355</v>
+      </c>
+      <c r="C96">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>360</v>
+      </c>
+      <c r="B97" t="s">
+        <v>361</v>
+      </c>
+      <c r="C97">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>362</v>
+      </c>
+      <c r="B98" t="s">
+        <v>363</v>
+      </c>
+      <c r="C98">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>365</v>
+      </c>
+      <c r="B99" t="s">
+        <v>364</v>
+      </c>
+      <c r="C99">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>368</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C100">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>